--- a/Everything AutoHotkey.xlsx
+++ b/Everything AutoHotkey.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elliott\Documents\GitHub\AutoHotkey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18323ECE-4ABB-4F80-9965-E33C732E2FEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D69FC57-7D4D-4736-A40D-0DB1C0412A3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{FD4AC1DB-593D-43DC-9691-5BFC217B9ECA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FD4AC1DB-593D-43DC-9691-5BFC217B9ECA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="iCUE" sheetId="1" r:id="rId1"/>
+    <sheet name="2nd Keeb" sheetId="2" r:id="rId2"/>
+    <sheet name="Run" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,15 +35,1537 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="291">
+  <si>
+    <t>Assigned Key</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Ctrl + F13</t>
+  </si>
+  <si>
+    <t>Keyboard G1</t>
+  </si>
+  <si>
+    <t>Ctrl + F14</t>
+  </si>
+  <si>
+    <t>Keyboard G2</t>
+  </si>
+  <si>
+    <t>Ctrl + F15</t>
+  </si>
+  <si>
+    <t>Keyboard G3</t>
+  </si>
+  <si>
+    <t>Ctrl + F16</t>
+  </si>
+  <si>
+    <t>Keyboard G4</t>
+  </si>
+  <si>
+    <t>Ctrl + F17</t>
+  </si>
+  <si>
+    <t>Keyboard G5</t>
+  </si>
+  <si>
+    <t>Ctrl + F18</t>
+  </si>
+  <si>
+    <t>Keyboard G6</t>
+  </si>
+  <si>
+    <t>Ctrl + F19</t>
+  </si>
+  <si>
+    <t>Keyboard G7</t>
+  </si>
+  <si>
+    <t>Ctrl + F20</t>
+  </si>
+  <si>
+    <t>Keyboard G8</t>
+  </si>
+  <si>
+    <t>Ctrl + F21</t>
+  </si>
+  <si>
+    <t>Keyboard G9</t>
+  </si>
+  <si>
+    <t>Ctrl + F22</t>
+  </si>
+  <si>
+    <t>Keyboard G10</t>
+  </si>
+  <si>
+    <t>Ctrl + F23</t>
+  </si>
+  <si>
+    <t>Keyboard G11</t>
+  </si>
+  <si>
+    <t>Alt + F23</t>
+  </si>
+  <si>
+    <t>Keyboard G12</t>
+  </si>
+  <si>
+    <t>Changed on 3/28/2020 2:49 PM.</t>
+  </si>
+  <si>
+    <t>Alt + F13</t>
+  </si>
+  <si>
+    <t>Keyboard G13</t>
+  </si>
+  <si>
+    <t>Alt + F14</t>
+  </si>
+  <si>
+    <t>Keyboard G14</t>
+  </si>
+  <si>
+    <t>Alt + F15</t>
+  </si>
+  <si>
+    <t>Keyboard G15</t>
+  </si>
+  <si>
+    <t>Alt + F16</t>
+  </si>
+  <si>
+    <t>Keyboard G16</t>
+  </si>
+  <si>
+    <t>Alt + F17</t>
+  </si>
+  <si>
+    <t>Keyboard G17</t>
+  </si>
+  <si>
+    <t>Alt + F18</t>
+  </si>
+  <si>
+    <t>Keyboard G18</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>Mouse G1</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>Mouse G2</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>Mouse G3</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>Mouse G4</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>Mouse G5</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>Mouse G6</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>Mouse G7</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>Mouse G8</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>Mouse G9</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>Mouse G10</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>Mouse G11</t>
+  </si>
+  <si>
+    <t>Shift + F23</t>
+  </si>
+  <si>
+    <t>Mouse G12</t>
+  </si>
+  <si>
+    <t>Ctrl + Alt + F23</t>
+  </si>
+  <si>
+    <t>Mouse Profile Switch</t>
+  </si>
+  <si>
+    <t>Front mouse button.</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + F23</t>
+  </si>
+  <si>
+    <t>Mouse DPI Toggle</t>
+  </si>
+  <si>
+    <t>Back mouse button. Changed on 3/28/2020 2:49 PM.</t>
+  </si>
+  <si>
+    <t>Hotkey</t>
+  </si>
+  <si>
+    <r>
+      <t>Esc:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Open this sheet.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +Saves pointer location, this key moves to that point</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +Saves pointer location, this key moves to that point</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +Saves pointer location, this key moves to that point</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>F4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +Saves pointer location, this key moves to that point</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">F5: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F6: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F7: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F8: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F9: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Run/show Outlook</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Run/show MS To Do</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Run/show Discord</t>
+    </r>
+  </si>
+  <si>
+    <t>F12:</t>
+  </si>
+  <si>
+    <t>PrtScn
+———
+SysRq:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scroll Lock: </t>
+  </si>
+  <si>
+    <t>Pause
+———
+Break</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`: </t>
+  </si>
+  <si>
+    <r>
+      <t>1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Expand Explorer Names</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sort Explorer by Name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sort Explorer by Date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Invert File Explorer selection</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Rename File Explorer File</t>
+    </r>
+  </si>
+  <si>
+    <t>In Firefox/Chrome, 1–8 is to go to tab 1–8, and 9 is the last tab.</t>
+  </si>
+  <si>
+    <t>0: Reset zoom</t>
+  </si>
+  <si>
+    <t>—
+–: Zoom out</t>
+  </si>
+  <si>
+    <t>+
+=: Zoom in</t>
+  </si>
+  <si>
+    <t>Backspace
+&lt;-----------
+Sends Alt + F4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Home: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Normal Home</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PgUp: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num
+Lock: </t>
+  </si>
+  <si>
+    <r>
+      <t>/:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Shift + Left</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Shift + Right</t>
+    </r>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tab: </t>
+  </si>
+  <si>
+    <t>Q: VD to the Left</t>
+  </si>
+  <si>
+    <t>W: VD to the Right</t>
+  </si>
+  <si>
+    <r>
+      <t>E:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Open AHK Documentation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Reloads either this script file or Main</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">T: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Open Terraria Wiki</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Y: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Paste a link in Gmail, and make it blue and clickable too.</t>
+    </r>
+  </si>
+  <si>
+    <t>U: Unzip .zip file in File Explorer</t>
+  </si>
+  <si>
+    <t>I: Create a new Private Firefox window w/ Google Images.</t>
+  </si>
+  <si>
+    <t>O: Send Ctrl + O.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">P: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Create a new Private Firefox window w/ Google.</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+[: Google Image Search for selected text in Private Firefox.</t>
+  </si>
+  <si>
+    <t>}
+]: Google Search for selected text in Private Firefox.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|
+\: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete: </t>
+  </si>
+  <si>
+    <r>
+      <t>End:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Normal End</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PgDn: </t>
+  </si>
+  <si>
+    <r>
+      <t>7
+Home:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Shift + Home</t>
+    </r>
+  </si>
+  <si>
+    <t>8
+↑</t>
+  </si>
+  <si>
+    <t>9
+PgUp:</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caps
+Lock: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Send Ctrl + A.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Open Music Folder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Open Desktop folder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Open AHK repo folder </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">G: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Open Documents folder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Open my user folder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>J:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Open C: drive.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>K:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Open Downloads folder</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>L:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Open G: drive.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">:
+;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Equivalent to Run's cthe.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"
+'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Equivalent to Run's thes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Enter:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Kind Regards Macro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4
+←
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ctrl + Shift + Left</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">5
+(Clear): </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6
+→
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ctrl + Shift + Right</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Shift: </t>
+  </si>
+  <si>
+    <r>
+      <t>Z:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Undo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>X:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Redo</t>
+    </r>
+  </si>
+  <si>
+    <t>C:
+Copy</t>
+  </si>
+  <si>
+    <t>V:
+Cut</t>
+  </si>
+  <si>
+    <t>B:
+Paste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N: </t>
+  </si>
+  <si>
+    <r>
+      <t>M:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sleep PC (+ manual Enter)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;
+,:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>This is equivalent to Win + S. Alt + , is equal to Alt + Win + S.</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt;
+.:
+Move win to 1st mon</t>
+  </si>
+  <si>
+    <r>
+      <t>Up:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Normal Up for Left &amp; Right.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1
+End:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Shift + End</t>
+    </r>
+  </si>
+  <si>
+    <t>2
+↓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3
+PgDn: </t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ctrl: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Win: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alt: </t>
+  </si>
+  <si>
+    <r>
+      <t>Apps Key:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Left:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ctrl + Left</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Down:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Normal Down for Left &amp; Right.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Right:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ctrl + Right</t>
+    </r>
+  </si>
+  <si>
+    <t>0
+Ins
+VD to the Left</t>
+  </si>
+  <si>
+    <t>.
+Del
+VD to the Right</t>
+  </si>
+  <si>
+    <r>
+      <t>Space Bar:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Temporarily suspends hotkeys</t>
+    </r>
+  </si>
+  <si>
+    <t>Text to Input</t>
+  </si>
+  <si>
+    <t>What It Does</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>Today's date (9/13/2020)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>da lo</t>
+  </si>
+  <si>
+    <t>Sunday, September 13</t>
+  </si>
+  <si>
+    <t>da lo t</t>
+  </si>
+  <si>
+    <t>Monday, September 14</t>
+  </si>
+  <si>
+    <t>da lo y</t>
+  </si>
+  <si>
+    <t>Saturday, September 12, 2020</t>
+  </si>
+  <si>
+    <t>da longest</t>
+  </si>
+  <si>
+    <t>Sunday, September 13, 2020</t>
+  </si>
+  <si>
+    <t>da longest t</t>
+  </si>
+  <si>
+    <t>Monday, September 14, 2020</t>
+  </si>
+  <si>
+    <t>da longest y</t>
+  </si>
+  <si>
+    <t>da sh</t>
+  </si>
+  <si>
+    <t>Sun, Sep 13</t>
+  </si>
+  <si>
+    <t>da sh t</t>
+  </si>
+  <si>
+    <t>Mon, Sep 14</t>
+  </si>
+  <si>
+    <t>da sh y</t>
+  </si>
+  <si>
+    <t>Sat, Sep 12</t>
+  </si>
+  <si>
+    <t>da t</t>
+  </si>
+  <si>
+    <t>Tomorrow's date (9/14/20)</t>
+  </si>
+  <si>
+    <t>da y</t>
+  </si>
+  <si>
+    <t>Yeserday's date (9/12/20)</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>9/13/2020 6:17 PM</t>
+  </si>
+  <si>
+    <t>ti</t>
+  </si>
+  <si>
+    <t>6:17 PM</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>(u)p/(r)ight/(d)own/(l)eft</t>
+  </si>
+  <si>
+    <t>↑ → ↓ ←</t>
+  </si>
+  <si>
+    <t>/= / =/</t>
+  </si>
+  <si>
+    <t>≠</t>
+  </si>
+  <si>
+    <t>+- / -+</t>
+  </si>
+  <si>
+    <t>± / ∓</t>
+  </si>
+  <si>
+    <t>&lt;= / &gt;=</t>
+  </si>
+  <si>
+    <t>≤ / ≥</t>
+  </si>
+  <si>
+    <t>2mail</t>
+  </si>
+  <si>
+    <t>Sends secondary Gmail</t>
+  </si>
+  <si>
+    <t>approx</t>
+  </si>
+  <si>
+    <t>≈</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>°</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>Δ</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>÷</t>
+  </si>
+  <si>
+    <t>em/en</t>
+  </si>
+  <si>
+    <t>Inserts either an — or an –</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>Inserts 35 * for header 1.</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>Inserts 20 * for header 2.</t>
+  </si>
+  <si>
+    <t>h3</t>
+  </si>
+  <si>
+    <t>Inserts 14 * for header 3.</t>
+  </si>
+  <si>
+    <t>h4</t>
+  </si>
+  <si>
+    <t>Inserts 9 * for header 4.</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>∞</t>
+  </si>
+  <si>
+    <t>int (top/bot)</t>
+  </si>
+  <si>
+    <t>∫ , ⌠, ⌡</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>Sends main Gmail.</t>
+  </si>
+  <si>
+    <t>micro</t>
+  </si>
+  <si>
+    <t>µ</t>
+  </si>
+  <si>
+    <t>mult</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>π</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>§</t>
+  </si>
+  <si>
+    <t>sqrt</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Inserts 50 * for titles for code sections.</t>
+  </si>
+  <si>
+    <t>theta</t>
+  </si>
+  <si>
+    <t>θ</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>✗</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>Kills the current running script.</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Hibernate PC.</t>
+  </si>
+  <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>Restart PC.</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>Shut down PC.</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>Get free space of all the drives in GB.</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Sleep PC.</t>
+  </si>
+  <si>
+    <t>Opens the 30 Clipboards.ahk Script</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>CN, Num, NumPad</t>
+  </si>
+  <si>
+    <t>Opens the Custom NumPad script.</t>
+  </si>
+  <si>
+    <t>CWG</t>
+  </si>
+  <si>
+    <t>Opens the help file for the Custom Window Groups script.</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>Opens Desmos graphing calculator.</t>
+  </si>
+  <si>
+    <t>Help &lt;Category&gt;</t>
+  </si>
+  <si>
+    <t>Shows all the commands for the specified category.</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>Opens my Math Notes album in Google Photos.</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Opens the MsgBox Creator script.</t>
+  </si>
+  <si>
+    <t>op in ff/chr</t>
+  </si>
+  <si>
+    <t>Opens the current tab in the specified browser.</t>
+  </si>
+  <si>
+    <t>thes ff/chr</t>
+  </si>
+  <si>
+    <t>Opens VSCode in either the AutoHotkey or DSU CSC 250 repo folder.</t>
+  </si>
+  <si>
+    <t>degf</t>
+  </si>
+  <si>
+    <t>℉</t>
+  </si>
+  <si>
+    <t>degc</t>
+  </si>
+  <si>
+    <t>℃</t>
+  </si>
+  <si>
+    <t>Open Thesaurus.com in the chosen browser and search for the inputted word.</t>
+  </si>
+  <si>
+    <t>tmp clr / clr tmp</t>
+  </si>
+  <si>
+    <t>Look through the entire repo and recycle any .tmp files.</t>
+  </si>
+  <si>
+    <t>vs/dsu</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,13 +1588,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF4C7C3"/>
+          <bgColor rgb="FFF4C7C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -81,6 +1684,83 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="image1.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A40D73D4-7281-49FD-B784-3EACA66DBFB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820400" y="0"/>
+          <a:ext cx="2034540" cy="731520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C7C28963-6771-4E06-B964-537AC63DEF67}" name="Table1" displayName="Table1" ref="A1:C33" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:C33" xr:uid="{37E02E66-16A0-4DE7-B908-6DA6573A05EA}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F9F66C70-898F-4A63-AAAB-9BA23460168B}" name="Hotkey" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{DDA190AD-60B3-4D1C-8200-62BF26D70E1C}" name="Assigned Key" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{8EF21B11-1CF7-4FF9-BA01-02A188AA62F8}" name="Remarks" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{01BB8D74-C48D-4101-A114-1ABB89AA7EE9}" name="Table3" displayName="Table3" ref="A1:C61" totalsRowShown="0">
+  <autoFilter ref="A1:C61" xr:uid="{B2CA89B5-92AB-4D18-9296-C63328F0C382}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C61">
+    <sortCondition ref="C2:C61"/>
+    <sortCondition ref="A2:A61"/>
+    <sortCondition ref="B2:B61"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0337ADB6-7289-475F-A868-B6FC6BC362AE}" name="Text to Input"/>
+    <tableColumn id="2" xr3:uid="{0F92F87B-A9FF-47E1-8393-1DB80B93ABF9}" name="What It Does"/>
+    <tableColumn id="3" xr3:uid="{DDCF065B-79E0-42A2-9FBD-CB88AC4A215E}" name="Category"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,12 +2060,1421 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8FE237-033E-4523-90C5-232E1F696C8F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="128" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05103432-731E-4B0B-9F23-BFFDB5E5D051}">
+  <dimension ref="A1:Y7"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="16" width="10" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" customWidth="1"/>
+    <col min="18" max="20" width="10" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" customWidth="1"/>
+    <col min="22" max="25" width="10" customWidth="1"/>
+    <col min="26" max="16384" width="14.44140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:25" ht="56.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" ht="70.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" ht="96" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" ht="81" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y5" s="8"/>
+    </row>
+    <row r="6" spans="2:25" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="W7" s="4"/>
+      <c r="X7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y7" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="O5:P5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91569B2A-0853-4139-A906-FC6074EDE2FE}">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="68.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B26" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>226</v>
+      </c>
+      <c r="B32" t="s">
+        <v>227</v>
+      </c>
+      <c r="C32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>232</v>
+      </c>
+      <c r="B35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>236</v>
+      </c>
+      <c r="B37" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" t="s">
+        <v>241</v>
+      </c>
+      <c r="C39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B40" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>244</v>
+      </c>
+      <c r="B41" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>246</v>
+      </c>
+      <c r="B42" t="s">
+        <v>247</v>
+      </c>
+      <c r="C42" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>248</v>
+      </c>
+      <c r="B43" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>250</v>
+      </c>
+      <c r="B44" t="s">
+        <v>251</v>
+      </c>
+      <c r="C44" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>252</v>
+      </c>
+      <c r="B45" t="s">
+        <v>253</v>
+      </c>
+      <c r="C45" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>255</v>
+      </c>
+      <c r="B46" t="s">
+        <v>256</v>
+      </c>
+      <c r="C46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>257</v>
+      </c>
+      <c r="B47" t="s">
+        <v>258</v>
+      </c>
+      <c r="C47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B48" t="s">
+        <v>260</v>
+      </c>
+      <c r="C48" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" t="s">
+        <v>262</v>
+      </c>
+      <c r="C49" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>263</v>
+      </c>
+      <c r="B50" t="s">
+        <v>264</v>
+      </c>
+      <c r="C50" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
+        <v>30</v>
+      </c>
+      <c r="B51" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>267</v>
+      </c>
+      <c r="B52" t="s">
+        <v>268</v>
+      </c>
+      <c r="C52" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>269</v>
+      </c>
+      <c r="B53" t="s">
+        <v>270</v>
+      </c>
+      <c r="C53" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>271</v>
+      </c>
+      <c r="B54" t="s">
+        <v>272</v>
+      </c>
+      <c r="C54" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>273</v>
+      </c>
+      <c r="B55" t="s">
+        <v>274</v>
+      </c>
+      <c r="C55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>275</v>
+      </c>
+      <c r="B56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C56" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>277</v>
+      </c>
+      <c r="B57" t="s">
+        <v>278</v>
+      </c>
+      <c r="C57" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>279</v>
+      </c>
+      <c r="B58" t="s">
+        <v>280</v>
+      </c>
+      <c r="C58" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>281</v>
+      </c>
+      <c r="B59" t="s">
+        <v>287</v>
+      </c>
+      <c r="C59" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>290</v>
+      </c>
+      <c r="B60" t="s">
+        <v>282</v>
+      </c>
+      <c r="C60" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>288</v>
+      </c>
+      <c r="B61" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>